--- a/biology/Botanique/Cochlospermaceae/Cochlospermaceae.xlsx
+++ b/biology/Botanique/Cochlospermaceae/Cochlospermaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cochlospermacées regroupe des plantes dicotylédones ; elle comprend une vingtaine d'espèces réparties en 2 genres :
 Amoreuxia (en)
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Cochlospermum, qui vient du latin cochlo-, lui-même issu du grec κοχλοσ / kochlos, « mollusque à coquille spiralée », et sperma, semence, en référence à l'embryon enroulé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Cochlospermum, qui vient du latin cochlo-, lui-même issu du grec κοχλοσ / kochlos, « mollusque à coquille spiralée », et sperma, semence, en référence à l'embryon enroulé.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[2] inclut cette famille dans celle des Bixacées.
-La classification phylogénétique APG II (2003)[3] situe cette famille dans l'ordre des Malvales. Cette famille y est optionnelle et, alternativement, cette espèce peut être incluse dans les Bixacées.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille des Bixaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) inclut cette famille dans celle des Bixacées.
+La classification phylogénétique APG II (2003) situe cette famille dans l'ordre des Malvales. Cette famille y est optionnelle et, alternativement, cette espèce peut être incluse dans les Bixacées.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille des Bixaceae.
 </t>
         </is>
       </c>
